--- a/biology/Écologie/Río_Nuevo/Río_Nuevo.xlsx
+++ b/biology/Écologie/Río_Nuevo/Río_Nuevo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%ADo_Nuevo</t>
+          <t>Río_Nuevo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le río Nuevo (en espagnol) ou New River (en anglais) est une rivière qui prend sa source au Mexique et se jette dans la mer de Salton en Californie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%ADo_Nuevo</t>
+          <t>Río_Nuevo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Cours et pollution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le río Nuevo prend sa source, au Mexique, aux environs du volcan Cerro Prieto (es), dans un lac volcanique qui alimente la station de géothermie de Cerro Prieto.
 Le río Nuevo, d'une longueur totale de 125 km, coule vers le Nord traversant la  ville de Mexicali au Mexique après avoir parcouru 25 km à travers la Basse-Californie. Devenu New River, la rivière, entre aux États-Unis à Calexico, et poursuit sa route en traversant Brawley avant de se jeter dans la mer de Salton après avoir parcouru 100 km. Le débit à la frontière est d'environ 6 m3/s, et environ trois fois plus de débit à l'embouchure de la Salton Sea en raison de rejets agricoles recueilli.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%ADo_Nuevo</t>
+          <t>Río_Nuevo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Principaux affluents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Pinto Wash qui prend sa source au Mexique et rejoint la New River aux États-Unis.
 Le Coyote Wash qui prend sa source et rejoint la New River aux États-Unis.</t>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%ADo_Nuevo</t>
+          <t>Río_Nuevo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lit de la rivière existe depuis les temps préhistoriques, mais la rivière actuelle a été formée lors des inondations massives qui ont créé la Salton Sea, à la suite d'un effondrement de digues. A l'automne 1904, de fortes pluies et la fonte des neiges ont fait gonfler le fleuve Colorado qui a débordé dans le canal Alamo (en), conduisant à des effondrements de digues et à l'inondation de la Vallée impériale.
 L'afflux soudain de l'eau et de l'absence de drainage du bassin ont abouti à la formation de la mer de Salton, un secteur qui a souvent été inondés auparavant. Près de deux ans de travaux ont été nécessaires pour pouvoir contrôler le débit du fleuve Colorado et arrêter l'inondation, mais la rivière qui était barrée au début de 1907 a repris son cours normal. L'inondation a considérablement élargie les canaux de la New River et de l'Alamo River.
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%ADo_Nuevo</t>
+          <t>Río_Nuevo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La puanteur de la New River près de la frontière est souvent insupportable, en particulier la nuit ou l'été, lorsque la température atteint environ 50 °C. La New River est si polluée que les techniciens portent habituellement deux séries de gants, de tabliers et d'autres vêtements de protection lors des analyses d'eau. Avec les pneus usagés, les déchets, les cadavres d'animaux et autres déchets provenant des zones résidentielles et du centre-ville de Calexico, les moustiques et autres parasites se développent durant la saison estivale. Tous ces facteurs élèvent le risque de contagion.
 Des dizaines de clandestins sont également exposés, car ils utilisent la rivière pour entrer aux États-Unis. Ceux qui réussissent à traverser ne reçoivent que rarement des soins médicaux appropriés ou de dépistage. Porteurs de maladies provenant de la New River ils prennent souvent des emplois dans les industries de services agricoles ou alimentaires, qu'ils véhiculent ensuite dans leur diverses destinations en Californie ou à travers les États-Unis. Le problème de la pollution devrait s'aggraver si la population de Mexicali, d'environ 1,3 million d'habitants, continue à se développer sans infrastructure adéquate.
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%ADo_Nuevo</t>
+          <t>Río_Nuevo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,7 +680,9 @@
           <t>Futur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le Colorado River Regional Water Quality Control Board, une fois que l'usine de traitement des eaux usées sera pleinement opérationnelle, elle pourra traiter, chaque jour, les 38 000 à 76 000 m3 d'eaux usées brutes déversées dans la New River. Bien que cela devrait se traduire par une meilleure qualité de l'eau mesurable de la New River à la frontière, en particulier en ce qui concerne les agents pathogènes et des nutriments, les projets binationaux ne parviennent pas à régler d'autres problèmes qui ont des impacts négatifs importants sur la qualité de l'eau de la New River à la frontière. Plus précisément, les projets ne traitent pas des déversements sauvages d'ordures dans la New River et ses affluents, les nutriments et les pathogènes des lagunes, du traitement des eaux usées de Mexicali, des rejets non traités ou partiellement traités de déchets industriels, du ruissellement agricole de la vallée de Mexicali, et des eaux de ruissellement urbain de la municipalité.
 Par ailleurs, le Mexique a l'intention de récupérer l'effluent de l'usine de traitement pour irriguer ses coulées vertes. Cela se traduira par une baisse de débit de 76 000 m3 par jour de la New River à la frontière. Cette perte de débit, couplée avec les 38 000 m3 par jour qui seront utilisés par InterGen et les plantes Sempra Energy Power ainsi qu'a d'autres projets et le transfert d'eau entre Imperial Irrigation District et l'Autorité San Diego County Water aura des effets dévastateurs sur la qualité de l'eau de mer de Salton.
